--- a/Dokumentation/Doku-Verlauf.xlsx
+++ b/Dokumentation/Doku-Verlauf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobal\OneDrive\Dokumente\GitHub\LF6ChatBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d906559467ff81d7/Dokumente/GitHub/LF6ChatBot/Dokumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D24096C-7879-461F-A457-151712B87CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{5D24096C-7879-461F-A457-151712B87CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BB9BF8F-1AFC-4715-8085-694365925CAF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -113,19 +113,19 @@
     <t>User</t>
   </si>
   <si>
-    <t>Florian Mein</t>
-  </si>
-  <si>
     <t>URL GitHub an Lehrkörper</t>
   </si>
   <si>
     <t>geplant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florian </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,6 +180,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,11 +482,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
